--- a/results/Farhat_analysis_summaries.xlsx
+++ b/results/Farhat_analysis_summaries.xlsx
@@ -12,20 +12,23 @@
     <sheet name="Capreomycin" sheetId="3" r:id="rId3"/>
     <sheet name="Clofazimine" sheetId="4" r:id="rId4"/>
     <sheet name="Delamanid" sheetId="5" r:id="rId5"/>
-    <sheet name="Ethionamide" sheetId="6" r:id="rId6"/>
-    <sheet name="Kanamycin" sheetId="7" r:id="rId7"/>
-    <sheet name="Levofloxacin" sheetId="8" r:id="rId8"/>
-    <sheet name="Linezolid" sheetId="9" r:id="rId9"/>
-    <sheet name="Moxifloxacin" sheetId="10" r:id="rId10"/>
-    <sheet name="Pyrazinamide" sheetId="11" r:id="rId11"/>
-    <sheet name="Streptomycin" sheetId="12" r:id="rId12"/>
+    <sheet name="Ethambutol" sheetId="6" r:id="rId6"/>
+    <sheet name="Ethionamide" sheetId="7" r:id="rId7"/>
+    <sheet name="Isoniazid" sheetId="8" r:id="rId8"/>
+    <sheet name="Kanamycin" sheetId="9" r:id="rId9"/>
+    <sheet name="Levofloxacin" sheetId="10" r:id="rId10"/>
+    <sheet name="Linezolid" sheetId="11" r:id="rId11"/>
+    <sheet name="Moxifloxacin" sheetId="12" r:id="rId12"/>
+    <sheet name="Pyrazinamide" sheetId="13" r:id="rId13"/>
+    <sheet name="Rifampicin" sheetId="14" r:id="rId14"/>
+    <sheet name="Streptomycin" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="4">
   <si>
     <t>Count</t>
   </si>
@@ -555,7 +558,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -569,7 +572,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -583,7 +586,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -597,7 +600,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -611,7 +614,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -625,7 +628,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>479</v>
+        <v>613</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -639,7 +642,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -653,7 +656,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1993</v>
+        <v>2109</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -694,7 +697,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>278</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -708,7 +711,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -722,7 +725,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>235</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -736,7 +739,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -750,7 +753,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -764,7 +767,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>462</v>
+        <v>107</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -778,7 +781,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>22</v>
+        <v>339</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -792,7 +795,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1267</v>
+        <v>752</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -833,6 +836,423 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>125</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>142</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>479</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>154</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1993</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>278</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>168</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>235</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>226</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>462</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1267</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>192</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>249</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>89</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>397</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2422</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>252</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>3896</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
         <v>159</v>
       </c>
       <c r="B2">
@@ -1528,7 +1948,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1542,7 +1962,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1556,7 +1976,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>56</v>
+        <v>567</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1570,7 +1990,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1584,7 +2004,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1598,7 +2018,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>798</v>
+        <v>980</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1612,7 +2032,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>155</v>
+        <v>1329</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1626,7 +2046,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1438</v>
+        <v>3770</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1667,7 +2087,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1681,7 +2101,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1695,7 +2115,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1709,7 +2129,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1723,7 +2143,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1737,7 +2157,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>209</v>
+        <v>798</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1751,7 +2171,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>376</v>
+        <v>155</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1765,7 +2185,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1672</v>
+        <v>1438</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1806,7 +2226,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1820,7 +2240,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1834,7 +2254,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1848,7 +2268,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1862,7 +2282,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>65</v>
+        <v>482</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1876,7 +2296,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>613</v>
+        <v>2466</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1890,7 +2310,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>153</v>
+        <v>394</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1904,7 +2324,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>2109</v>
+        <v>3472</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1945,7 +2365,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1959,7 +2379,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1973,7 +2393,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1987,7 +2407,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2001,7 +2421,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2015,7 +2435,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2029,7 +2449,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2043,7 +2463,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>752</v>
+        <v>1672</v>
       </c>
       <c r="B9">
         <v>0</v>
